--- a/report_wind_tax_incentive_2000.xlsx
+++ b/report_wind_tax_incentive_2000.xlsx
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>149.8</v>
@@ -1672,16 +1672,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>82</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>80</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>47.9</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>47.9</v>
@@ -1939,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>47.5</v>
@@ -2636,20 +2636,20 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>3</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2942,13 +2942,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>58.8</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="R35" t="n">
-        <v>347.8786220000015</v>
+        <v>438.0786219999993</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -3630,28 +3630,28 @@
         <v>17</v>
       </c>
       <c r="J36" t="n">
-        <v>110.96</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>110.9599999999998</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>110.96</v>
@@ -3663,7 +3663,7 @@
         <v>7</v>
       </c>
       <c r="U36" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>110.96</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>515.5</v>
+        <v>407.320896</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -3962,7 +3962,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>197.8405019999998</v>
+        <v>197.8405019999992</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>424.6197320945947</v>
+        <v>424.6197320946533</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>235.5494300000001</v>
+        <v>268.5294299999971</v>
       </c>
       <c r="O40" t="n">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>432.2194689189195</v>
+        <v>432.2194689189191</v>
       </c>
       <c r="W40" t="n">
         <v>1</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>222.7408960000003</v>
+        <v>54.1800000000014</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>11</v>
       </c>
       <c r="F46" t="n">
-        <v>79.96320590540525</v>
+        <v>79.96320590534793</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>244.9</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>87.36028308108165</v>
+        <v>87.36028308108128</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4888,16 +4888,16 @@
         <v>4</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>47.28000000000103</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -4965,25 +4965,25 @@
         <v>11</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>30.7</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>30.7</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -5007,13 +5007,13 @@
         <v>1</v>
       </c>
       <c r="X51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y51" t="n">
         <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>30.94000000000218</v>
+        <v>30.9400000000002</v>
       </c>
       <c r="AA51" t="n">
         <v>1</v>
@@ -5054,16 +5054,16 @@
         <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>29.8</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -5078,16 +5078,16 @@
         <v>5</v>
       </c>
       <c r="R52" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -5229,31 +5229,31 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
         <v>4</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>3</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -5407,31 +5407,31 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
         <v>3</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -5597,19 +5597,19 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
         <v>5</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>6</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
